--- a/source/doc/Measurements2.xlsx
+++ b/source/doc/Measurements2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tixo\Work\Tikhomirov2\vi_metrics_time\source\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55FEF9AD-05F2-4FC1-A773-1E5E7F681806}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{695B8F04-D447-45F4-994B-5101A0FF0013}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="3" xr2:uid="{74A1CE84-9CF2-455B-89D8-023FA09BAAAC}"/>
   </bookViews>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="519" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="519" uniqueCount="69">
   <si>
     <t>&lt;WIN&gt;::QueryUnbiasedInterruptTimePrecise()</t>
   </si>
@@ -249,6 +249,9 @@
   </si>
   <si>
     <t>Type:</t>
+  </si>
+  <si>
+    <t>Process</t>
   </si>
 </sst>
 </file>
@@ -256,7 +259,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="#,##0.0"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -291,7 +294,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment textRotation="90"/>
     </xf>
@@ -1905,7 +1908,7 @@
   <dimension ref="A1:L46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B15" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
       <selection pane="bottomRight" activeCell="C45" sqref="C45"/>
@@ -3167,7 +3170,7 @@
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="E10" sqref="A1:K46"/>
+      <selection pane="bottomRight" activeCell="R22" sqref="R22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4341,7 +4344,7 @@
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="N20" sqref="N20"/>
+      <selection pane="bottomRight" activeCell="K48" sqref="K48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4354,7 +4357,7 @@
     <col min="6" max="6" width="17.85546875" bestFit="1" customWidth="1"/>
     <col min="7" max="8" width="12.5703125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="8" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
@@ -4591,22 +4594,22 @@
         <v>7</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
@@ -4867,22 +4870,22 @@
         <v>19</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
@@ -5001,16 +5004,16 @@
         <v>65</v>
       </c>
       <c r="H26" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="I26" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="J26" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="K26" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
@@ -5199,16 +5202,16 @@
       <c r="E33" s="2"/>
       <c r="G33" s="2"/>
       <c r="H33" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="I33" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="J33" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="K33" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
@@ -5287,16 +5290,16 @@
       <c r="E37" s="2"/>
       <c r="G37" s="2"/>
       <c r="H37" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="I37" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="J37" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="K37" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
@@ -5397,16 +5400,16 @@
       <c r="E42" s="2"/>
       <c r="G42" s="2"/>
       <c r="H42" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="I42" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="J42" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="K42" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">

--- a/source/doc/Measurements2.xlsx
+++ b/source/doc/Measurements2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tixo\Work\Tikhomirov2\vi_metrics_time\source\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{695B8F04-D447-45F4-994B-5101A0FF0013}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89E5613B-0F87-4A4B-9823-6DC794367D99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="3" xr2:uid="{74A1CE84-9CF2-455B-89D8-023FA09BAAAC}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{74A1CE84-9CF2-455B-89D8-023FA09BAAAC}"/>
   </bookViews>
   <sheets>
     <sheet name="Discreteness" sheetId="1" r:id="rId1"/>
@@ -128,12 +128,6 @@
     <t>&lt;C++&gt;::high_resolution_clock::now()</t>
   </si>
   <si>
-    <t>&lt;ASM&gt;::__rdtscp</t>
-  </si>
-  <si>
-    <t>&lt;ASM&gt;::__rdtsc</t>
-  </si>
-  <si>
     <t>MONOBLOCK</t>
   </si>
   <si>
@@ -252,6 +246,12 @@
   </si>
   <si>
     <t>Process</t>
+  </si>
+  <si>
+    <t>&lt;ASM&gt;::rdtscp</t>
+  </si>
+  <si>
+    <t>&lt;ASM&gt;::rdtsc</t>
   </si>
 </sst>
 </file>
@@ -634,11 +634,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1EC71AE4-5FD5-4C33-8C3E-5AC14E65B1A2}">
   <dimension ref="A1:L46"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="O18" sqref="O18"/>
+      <selection pane="bottomRight" activeCell="A32" sqref="A32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -652,69 +652,69 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1" t="s">
         <v>39</v>
       </c>
-      <c r="C1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>41</v>
       </c>
-      <c r="E1" t="s">
-        <v>43</v>
-      </c>
       <c r="F1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J1" t="s">
         <v>29</v>
       </c>
-      <c r="H1" t="s">
-        <v>36</v>
-      </c>
-      <c r="I1" t="s">
-        <v>35</v>
-      </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>31</v>
-      </c>
-      <c r="K1" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:12" s="3" customFormat="1" ht="119.25" x14ac:dyDescent="0.25">
       <c r="B2" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D2" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="E2" s="3" t="s">
-        <v>44</v>
-      </c>
       <c r="F2" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="G2" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="J2" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="H2" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="J2" s="3" t="s">
+      <c r="K2" s="3" t="s">
         <v>32</v>
-      </c>
-      <c r="K2" s="3" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
@@ -1498,7 +1498,7 @@
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>27</v>
+        <v>67</v>
       </c>
       <c r="B30" s="2">
         <v>8.9</v>
@@ -1529,7 +1529,7 @@
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>28</v>
+        <v>68</v>
       </c>
       <c r="B31" s="2">
         <v>6.3</v>
@@ -1560,7 +1560,7 @@
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
@@ -1577,7 +1577,7 @@
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
@@ -1600,7 +1600,7 @@
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
@@ -1623,7 +1623,7 @@
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
@@ -1646,7 +1646,7 @@
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
@@ -1669,7 +1669,7 @@
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
@@ -1692,7 +1692,7 @@
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
@@ -1715,7 +1715,7 @@
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
@@ -1738,7 +1738,7 @@
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" s="2"/>
@@ -1761,7 +1761,7 @@
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" s="2"/>
@@ -1784,7 +1784,7 @@
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" s="2"/>
@@ -1807,7 +1807,7 @@
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" s="2"/>
@@ -1830,7 +1830,7 @@
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" s="2"/>
@@ -1853,7 +1853,7 @@
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" s="2"/>
@@ -1876,7 +1876,7 @@
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" s="2"/>
@@ -1911,7 +1911,7 @@
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C45" sqref="C45"/>
+      <selection pane="bottomRight" activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1929,69 +1929,69 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F1" t="s">
         <v>60</v>
       </c>
-      <c r="B1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E1" t="s">
-        <v>43</v>
-      </c>
-      <c r="F1" t="s">
-        <v>62</v>
-      </c>
       <c r="G1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J1" t="s">
         <v>29</v>
       </c>
-      <c r="H1" t="s">
-        <v>36</v>
-      </c>
-      <c r="I1" t="s">
-        <v>35</v>
-      </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>31</v>
-      </c>
-      <c r="K1" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:12" s="3" customFormat="1" ht="119.25" x14ac:dyDescent="0.25">
       <c r="B2" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D2" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="E2" s="3" t="s">
-        <v>44</v>
-      </c>
       <c r="F2" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="G2" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="J2" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="H2" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="J2" s="3" t="s">
+      <c r="K2" s="3" t="s">
         <v>32</v>
-      </c>
-      <c r="K2" s="3" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
@@ -2772,7 +2772,7 @@
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>27</v>
+        <v>67</v>
       </c>
       <c r="B30" s="2">
         <v>9</v>
@@ -2803,7 +2803,7 @@
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>28</v>
+        <v>68</v>
       </c>
       <c r="B31" s="2">
         <v>6.3</v>
@@ -2834,7 +2834,7 @@
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
@@ -2850,7 +2850,7 @@
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
@@ -2872,7 +2872,7 @@
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
@@ -2894,7 +2894,7 @@
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
@@ -2916,7 +2916,7 @@
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
@@ -2938,7 +2938,7 @@
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
@@ -2960,7 +2960,7 @@
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
@@ -2982,7 +2982,7 @@
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
@@ -3004,7 +3004,7 @@
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" s="2"/>
@@ -3026,7 +3026,7 @@
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" s="2"/>
@@ -3048,7 +3048,7 @@
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" s="2"/>
@@ -3070,7 +3070,7 @@
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" s="2"/>
@@ -3092,7 +3092,7 @@
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" s="2"/>
@@ -3114,7 +3114,7 @@
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" s="2"/>
@@ -3136,7 +3136,7 @@
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" s="2"/>
@@ -3170,7 +3170,7 @@
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="R22" sqref="R22"/>
+      <selection pane="bottomRight" activeCell="A32" sqref="A32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3184,69 +3184,69 @@
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1" t="s">
         <v>39</v>
       </c>
-      <c r="C1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>41</v>
       </c>
-      <c r="E1" t="s">
-        <v>43</v>
-      </c>
       <c r="F1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J1" t="s">
         <v>29</v>
       </c>
-      <c r="H1" t="s">
-        <v>36</v>
-      </c>
-      <c r="I1" t="s">
-        <v>35</v>
-      </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>31</v>
-      </c>
-      <c r="K1" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:16" s="3" customFormat="1" ht="119.25" x14ac:dyDescent="0.25">
       <c r="B2" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D2" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="E2" s="3" t="s">
-        <v>44</v>
-      </c>
       <c r="F2" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="G2" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="J2" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="H2" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="J2" s="3" t="s">
+      <c r="K2" s="3" t="s">
         <v>32</v>
-      </c>
-      <c r="K2" s="3" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
@@ -3946,7 +3946,7 @@
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>27</v>
+        <v>67</v>
       </c>
       <c r="B30" s="2">
         <v>0.25</v>
@@ -3975,7 +3975,7 @@
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>28</v>
+        <v>68</v>
       </c>
       <c r="B31" s="2">
         <v>0.25</v>
@@ -4005,7 +4005,7 @@
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
@@ -4018,7 +4018,7 @@
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
@@ -4040,7 +4040,7 @@
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
@@ -4062,7 +4062,7 @@
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
@@ -4084,7 +4084,7 @@
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
@@ -4106,7 +4106,7 @@
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
@@ -4128,7 +4128,7 @@
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
@@ -4150,7 +4150,7 @@
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
@@ -4172,7 +4172,7 @@
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" s="2"/>
@@ -4194,7 +4194,7 @@
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" s="2"/>
@@ -4216,7 +4216,7 @@
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" s="2"/>
@@ -4238,7 +4238,7 @@
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" s="2"/>
@@ -4260,7 +4260,7 @@
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" s="2"/>
@@ -4282,7 +4282,7 @@
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" s="2"/>
@@ -4304,7 +4304,7 @@
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" s="2"/>
@@ -4340,11 +4340,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E5D1AC6-E8DE-41B2-92D0-3DF355A17032}">
   <dimension ref="A1:K46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" ySplit="2" topLeftCell="B15" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="K48" sqref="K48"/>
+      <selection pane="bottomRight" activeCell="A48" sqref="A48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4362,70 +4362,70 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1" t="s">
         <v>39</v>
       </c>
-      <c r="C1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>41</v>
       </c>
-      <c r="E1" t="s">
-        <v>43</v>
-      </c>
       <c r="F1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J1" t="s">
         <v>29</v>
       </c>
-      <c r="H1" t="s">
-        <v>36</v>
-      </c>
-      <c r="I1" t="s">
-        <v>35</v>
-      </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>31</v>
-      </c>
-      <c r="K1" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="119.25" x14ac:dyDescent="0.25">
       <c r="A2" s="3"/>
       <c r="B2" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D2" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="E2" s="3" t="s">
-        <v>44</v>
-      </c>
       <c r="F2" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="G2" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="J2" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="H2" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="J2" s="3" t="s">
+      <c r="K2" s="3" t="s">
         <v>32</v>
-      </c>
-      <c r="K2" s="3" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
@@ -4433,22 +4433,22 @@
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
@@ -4456,22 +4456,22 @@
         <v>2</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
@@ -4479,22 +4479,22 @@
         <v>3</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
@@ -4502,22 +4502,22 @@
         <v>4</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
@@ -4525,22 +4525,22 @@
         <v>0</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
@@ -4548,22 +4548,22 @@
         <v>5</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
@@ -4571,22 +4571,22 @@
         <v>6</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
@@ -4594,22 +4594,22 @@
         <v>7</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
@@ -4617,22 +4617,22 @@
         <v>8</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
@@ -4640,22 +4640,22 @@
         <v>9</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
@@ -4663,22 +4663,22 @@
         <v>10</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
@@ -4686,22 +4686,22 @@
         <v>11</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
@@ -4709,22 +4709,22 @@
         <v>12</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
@@ -4732,22 +4732,22 @@
         <v>13</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
@@ -4755,22 +4755,22 @@
         <v>14</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
@@ -4778,22 +4778,22 @@
         <v>15</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
@@ -4801,22 +4801,22 @@
         <v>16</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
@@ -4824,22 +4824,22 @@
         <v>17</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
@@ -4847,22 +4847,22 @@
         <v>18</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
@@ -4870,22 +4870,22 @@
         <v>19</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
@@ -4893,22 +4893,22 @@
         <v>20</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
@@ -4916,34 +4916,34 @@
         <v>21</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="H24" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="I24" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="J24" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="K24" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
@@ -4951,34 +4951,34 @@
         <v>22</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="H25" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="I25" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="J25" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="K25" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
@@ -4986,34 +4986,34 @@
         <v>23</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="H26" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="I26" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="J26" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="K26" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
@@ -5021,34 +5021,34 @@
         <v>24</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="H27" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="I27" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="J27" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="K27" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
@@ -5056,34 +5056,34 @@
         <v>25</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="H28" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="I28" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="J28" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="K28" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
@@ -5091,97 +5091,97 @@
         <v>26</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="H29" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="I29" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="J29" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="K29" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>27</v>
+        <v>67</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="H30" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="I30" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>28</v>
+        <v>68</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="H31" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="I31" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
@@ -5189,12 +5189,12 @@
       <c r="E32" s="2"/>
       <c r="G32" s="2"/>
       <c r="J32" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
@@ -5202,21 +5202,21 @@
       <c r="E33" s="2"/>
       <c r="G33" s="2"/>
       <c r="H33" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="I33" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="J33" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="K33" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
@@ -5224,21 +5224,21 @@
       <c r="E34" s="2"/>
       <c r="G34" s="2"/>
       <c r="H34" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="I34" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="J34" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="K34" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
@@ -5246,21 +5246,21 @@
       <c r="E35" s="2"/>
       <c r="G35" s="2"/>
       <c r="H35" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="I35" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="J35" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="K35" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
@@ -5268,21 +5268,21 @@
       <c r="E36" s="2"/>
       <c r="G36" s="2"/>
       <c r="H36" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="I36" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="J36" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="K36" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
@@ -5290,21 +5290,21 @@
       <c r="E37" s="2"/>
       <c r="G37" s="2"/>
       <c r="H37" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="I37" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="J37" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="K37" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
@@ -5312,21 +5312,21 @@
       <c r="E38" s="2"/>
       <c r="G38" s="2"/>
       <c r="H38" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="I38" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="J38" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="K38" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
@@ -5334,21 +5334,21 @@
       <c r="E39" s="2"/>
       <c r="G39" s="2"/>
       <c r="H39" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="I39" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="J39" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="K39" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" s="2"/>
@@ -5356,21 +5356,21 @@
       <c r="E40" s="2"/>
       <c r="G40" s="2"/>
       <c r="H40" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="I40" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="J40" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="K40" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" s="2"/>
@@ -5378,21 +5378,21 @@
       <c r="E41" s="2"/>
       <c r="G41" s="2"/>
       <c r="H41" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="I41" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="J41" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="K41" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" s="2"/>
@@ -5400,21 +5400,21 @@
       <c r="E42" s="2"/>
       <c r="G42" s="2"/>
       <c r="H42" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="I42" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="J42" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="K42" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" s="2"/>
@@ -5422,21 +5422,21 @@
       <c r="E43" s="2"/>
       <c r="G43" s="2"/>
       <c r="H43" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="I43" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="J43" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="K43" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" s="2"/>
@@ -5444,21 +5444,21 @@
       <c r="E44" s="2"/>
       <c r="G44" s="2"/>
       <c r="H44" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="I44" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="J44" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="K44" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" s="2"/>
@@ -5466,21 +5466,21 @@
       <c r="E45" s="2"/>
       <c r="G45" s="2"/>
       <c r="H45" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="I45" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="J45" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="K45" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" s="2"/>
@@ -5488,16 +5488,16 @@
       <c r="E46" s="2"/>
       <c r="G46" s="2"/>
       <c r="H46" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="I46" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="J46" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="K46" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>
